--- a/Arduino-Bluetooth/docs/Tukey-HSD-p-value.xlsx
+++ b/Arduino-Bluetooth/docs/Tukey-HSD-p-value.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,19 +487,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01152999999999998</v>
+        <v>6.923666666666668</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002823463818111906</v>
+        <v>6.598568888047397</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02023653618188806</v>
+        <v>7.24876444528594</v>
       </c>
       <c r="F2" t="n">
-        <v>5.677803884478594</v>
+        <v>93.44336855855964</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001547914660684713</v>
+        <v>0.001</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -519,23 +519,23 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.000000000001704e-05</v>
+        <v>7.725166666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.008656536181888061</v>
+        <v>7.400068888047396</v>
       </c>
       <c r="E3" t="n">
-        <v>0.008756536181888095</v>
+        <v>8.050264445285938</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02462187287285575</v>
+        <v>104.2605935212026</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -551,23 +551,23 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.001680000000000313</v>
+        <v>8.031777777777782</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.007026536181887765</v>
+        <v>7.70667999915851</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01038653618188839</v>
+        <v>8.356875556397053</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8272949285278256</v>
+        <v>108.3986863034045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -583,16 +583,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.02649000000000007</v>
+        <v>8.201916666666669</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01778346381811199</v>
+        <v>7.876818888047397</v>
       </c>
       <c r="E5" t="n">
-        <v>0.03519653618188814</v>
+        <v>8.527014445285941</v>
       </c>
       <c r="F5" t="n">
-        <v>13.04466824803456</v>
+        <v>110.6949191618015</v>
       </c>
       <c r="G5" t="n">
         <v>0.001</v>
@@ -615,16 +615,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0578099999999998</v>
+        <v>8.164466666666668</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04910346381811172</v>
+        <v>7.839368888047396</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06651653618188788</v>
+        <v>8.489564445285939</v>
       </c>
       <c r="F6" t="n">
-        <v>28.46780941558602</v>
+        <v>110.1894855063417</v>
       </c>
       <c r="G6" t="n">
         <v>0.001</v>
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0677899999999996</v>
+        <v>8.189611111111111</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05908346381811153</v>
+        <v>7.864513332491839</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07649653618188768</v>
+        <v>8.514708889730382</v>
       </c>
       <c r="F7" t="n">
-        <v>33.38233524100625</v>
+        <v>110.5288406056758</v>
       </c>
       <c r="G7" t="n">
         <v>0.001</v>
@@ -679,16 +679,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1399900000000002</v>
+        <v>7.938904761904761</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1312834638181122</v>
+        <v>7.613806983285489</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1486965361818883</v>
+        <v>8.264002540524032</v>
       </c>
       <c r="F8" t="n">
-        <v>68.93631966939815</v>
+        <v>107.1452511123158</v>
       </c>
       <c r="G8" t="n">
         <v>0.001</v>
@@ -702,28 +702,28 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3v</t>
+          <t>0.5v</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6v</t>
+          <t>24.5v</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01147999999999997</v>
+        <v>7.23669387755102</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002773463818111888</v>
+        <v>6.911596098931748</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02018653618188804</v>
+        <v>7.561791656170292</v>
       </c>
       <c r="F9" t="n">
-        <v>5.653182011605737</v>
+        <v>97.66805447192796</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001659090554835818</v>
+        <v>0.001</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -739,27 +739,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9v</t>
+          <t>6v</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.009849999999999672</v>
+        <v>0.8014999999999993</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001143463818111593</v>
+        <v>0.4764022213807277</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01855653618188775</v>
+        <v>1.126597778619271</v>
       </c>
       <c r="F10" t="n">
-        <v>4.850508955950768</v>
+        <v>10.81722496264294</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01408271440148068</v>
+        <v>0.001</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -771,20 +771,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12v</t>
+          <t>9v</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01496000000000008</v>
+        <v>1.108111111111114</v>
       </c>
       <c r="D11" t="n">
-        <v>0.006253463818112003</v>
+        <v>0.7830133324918421</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02366653618188816</v>
+        <v>1.433208889730385</v>
       </c>
       <c r="F11" t="n">
-        <v>7.36686436355597</v>
+        <v>14.95531774484485</v>
       </c>
       <c r="G11" t="n">
         <v>0.001</v>
@@ -803,20 +803,20 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15v</t>
+          <t>12v</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.04627999999999981</v>
+        <v>1.27825</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03757346381811173</v>
+        <v>0.9531522213807287</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0549865361818879</v>
+        <v>1.603347778619272</v>
       </c>
       <c r="F12" t="n">
-        <v>22.79000553110743</v>
+        <v>17.25155060324186</v>
       </c>
       <c r="G12" t="n">
         <v>0.001</v>
@@ -835,20 +835,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>18v</t>
+          <t>15v</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.05625999999999962</v>
+        <v>1.2408</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04755346381811154</v>
+        <v>0.9157022213807281</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06496653618188769</v>
+        <v>1.565897778619271</v>
       </c>
       <c r="F13" t="n">
-        <v>27.70453135652766</v>
+        <v>16.74611694778211</v>
       </c>
       <c r="G13" t="n">
         <v>0.001</v>
@@ -867,20 +867,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21v</t>
+          <t>18v</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1284600000000002</v>
+        <v>1.265944444444443</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1197534638181122</v>
+        <v>0.9408466658251714</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1371665361818883</v>
+        <v>1.591042223063714</v>
       </c>
       <c r="F14" t="n">
-        <v>63.25851578491956</v>
+        <v>17.08547204711613</v>
       </c>
       <c r="G14" t="n">
         <v>0.001</v>
@@ -894,64 +894,64 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6v</t>
+          <t>3v</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9v</t>
+          <t>21v</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.001630000000000296</v>
+        <v>1.015238095238092</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.007076536181887782</v>
+        <v>0.6901403166188206</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01033653618188837</v>
+        <v>1.340335873857364</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8026730556549698</v>
+        <v>13.70188255375616</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9</v>
+        <v>0.001</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6v</t>
+          <t>3v</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12v</t>
+          <t>24.5v</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.02644000000000005</v>
+        <v>0.3130272108843519</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01773346381811197</v>
+        <v>-0.01207056773491966</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03514653618188812</v>
+        <v>0.6381249895036235</v>
       </c>
       <c r="F16" t="n">
-        <v>13.02004637516171</v>
+        <v>4.224685913368321</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001</v>
+        <v>0.0700833684485298</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -963,27 +963,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>15v</t>
+          <t>9v</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.05775999999999978</v>
+        <v>0.3066111111111143</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04905346381811171</v>
+        <v>-0.01848666750815731</v>
       </c>
       <c r="E17" t="n">
-        <v>0.06646653618188786</v>
+        <v>0.6317088897303859</v>
       </c>
       <c r="F17" t="n">
-        <v>28.44318754271317</v>
+        <v>4.138092782201915</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001</v>
+        <v>0.08306881722744952</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -995,20 +995,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>18v</t>
+          <t>12v</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.06773999999999958</v>
+        <v>0.4767500000000011</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0590334638181115</v>
+        <v>0.1516522213807295</v>
       </c>
       <c r="E18" t="n">
-        <v>0.07644653618188765</v>
+        <v>0.8018477786192727</v>
       </c>
       <c r="F18" t="n">
-        <v>33.3577133681334</v>
+        <v>6.434325640598922</v>
       </c>
       <c r="G18" t="n">
         <v>0.001</v>
@@ -1027,20 +1027,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>21v</t>
+          <t>15v</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.1399400000000002</v>
+        <v>0.4393000000000004</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1312334638181122</v>
+        <v>0.1142022213807288</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1486465361818883</v>
+        <v>0.7643977786192719</v>
       </c>
       <c r="F19" t="n">
-        <v>68.9116977965253</v>
+        <v>5.928891985139176</v>
       </c>
       <c r="G19" t="n">
         <v>0.001</v>
@@ -1054,25 +1054,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9v</t>
+          <t>6v</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12v</t>
+          <t>18v</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.02480999999999975</v>
+        <v>0.4644444444444436</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01610346381811167</v>
+        <v>0.139346665825172</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03351653618188783</v>
+        <v>0.7895422230637152</v>
       </c>
       <c r="F20" t="n">
-        <v>12.21737331950674</v>
+        <v>6.2682470844732</v>
       </c>
       <c r="G20" t="n">
         <v>0.001</v>
@@ -1086,57 +1086,57 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9v</t>
+          <t>6v</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15v</t>
+          <t>21v</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.05612999999999949</v>
+        <v>0.2137380952380928</v>
       </c>
       <c r="D21" t="n">
-        <v>0.04742346381811141</v>
+        <v>-0.1113596833811787</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06483653618188756</v>
+        <v>0.5388358738573644</v>
       </c>
       <c r="F21" t="n">
-        <v>27.64051448705819</v>
+        <v>2.884657591113229</v>
       </c>
       <c r="G21" t="n">
-        <v>0.001</v>
+        <v>0.5129628926384373</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9v</t>
+          <t>6v</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>18v</t>
+          <t>24.5v</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.06610999999999929</v>
+        <v>0.4884727891156474</v>
       </c>
       <c r="D22" t="n">
-        <v>0.05740346381811122</v>
+        <v>0.1633750104963758</v>
       </c>
       <c r="E22" t="n">
-        <v>0.07481653618188737</v>
+        <v>0.813570567734919</v>
       </c>
       <c r="F22" t="n">
-        <v>32.55504031247843</v>
+        <v>6.592539049274615</v>
       </c>
       <c r="G22" t="n">
         <v>0.001</v>
@@ -1155,34 +1155,34 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>21v</t>
+          <t>12v</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.1383099999999999</v>
+        <v>0.1701388888888868</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1296034638181119</v>
+        <v>-0.1549588897303847</v>
       </c>
       <c r="E23" t="n">
-        <v>0.147016536181888</v>
+        <v>0.4952366675081584</v>
       </c>
       <c r="F23" t="n">
-        <v>68.10902474087034</v>
+        <v>2.296232858397007</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001</v>
+        <v>0.7653698729057734</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>12v</t>
+          <t>9v</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1191,30 +1191,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.03131999999999974</v>
+        <v>0.1326888888888861</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02261346381811166</v>
+        <v>-0.1924088897303855</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04002653618188781</v>
+        <v>0.4577866675081577</v>
       </c>
       <c r="F24" t="n">
-        <v>15.42314116755146</v>
+        <v>1.790799202937261</v>
       </c>
       <c r="G24" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>12v</t>
+          <t>9v</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1223,30 +1223,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.04129999999999954</v>
+        <v>0.1578333333333293</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03259346381811146</v>
+        <v>-0.1672644452859423</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05000653618188762</v>
+        <v>0.4829311119526009</v>
       </c>
       <c r="F25" t="n">
-        <v>20.33766699297169</v>
+        <v>2.130154302271285</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001</v>
+        <v>0.8366112976143534</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>12v</t>
+          <t>9v</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1255,117 +1255,373 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.1135000000000002</v>
+        <v>0.09287301587302144</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1047934638181121</v>
+        <v>-0.2322247627462501</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1222065361818882</v>
+        <v>0.417970794492293</v>
       </c>
       <c r="F26" t="n">
-        <v>55.89165142136359</v>
+        <v>1.253435191088686</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>15v</t>
+          <t>9v</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>18v</t>
+          <t>24.5v</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.009979999999999802</v>
+        <v>0.7950839002267617</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001273463818111723</v>
+        <v>0.4699861216074901</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01868653618188788</v>
+        <v>1.120181678846033</v>
       </c>
       <c r="F27" t="n">
-        <v>4.914525825420236</v>
+        <v>10.73063183147653</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01203772246034485</v>
+        <v>0.001</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>12v</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>15v</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>21v</t>
-        </is>
-      </c>
       <c r="C28" t="n">
-        <v>0.08218000000000043</v>
+        <v>0.03745000000000076</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07347346381811236</v>
+        <v>-0.2876477786192708</v>
       </c>
       <c r="E28" t="n">
-        <v>0.09088653618188851</v>
+        <v>0.3625477786192723</v>
       </c>
       <c r="F28" t="n">
-        <v>40.46851025381213</v>
+        <v>0.5054336554597461</v>
       </c>
       <c r="G28" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>12v</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>18v</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>0.01230555555555751</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.3127922230637141</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.3374033341748291</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1660785561257221</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>12v</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>21v</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>0.07220000000000062</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.06349346381811255</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.0809065361818887</v>
-      </c>
-      <c r="F29" t="n">
-        <v>35.5539844283919</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="C30" t="n">
+        <v>0.2630119047619083</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.06208587385736331</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.5881096833811799</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.549668049485693</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.2271347020982002</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>12v</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>24.5v</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9652227891156485</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.6401250104963769</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.29032056773492</v>
+      </c>
+      <c r="F31" t="n">
+        <v>13.02686468987354</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>15v</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>18v</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.02514444444444325</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.2999533341748283</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.3502422230637148</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.339355099334024</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>15v</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>21v</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2255619047619075</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.09953587385736407</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.5506596833811791</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3.044234394025947</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.4402912847521626</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>15v</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>24.5v</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9277727891156478</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.6026750104963762</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.252870567734919</v>
+      </c>
+      <c r="F34" t="n">
+        <v>12.52143103441379</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>18v</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>21v</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.2507063492063508</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.07439142941292082</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5758041278256223</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3.383589493359971</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.2881714444349286</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>18v</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>24.5v</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9529172335600911</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.6278194549408195</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.278015012179363</v>
+      </c>
+      <c r="F36" t="n">
+        <v>12.86078613374782</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>21v</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>24.5v</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7022108843537402</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.3771131057344687</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.027308662973012</v>
+      </c>
+      <c r="F37" t="n">
+        <v>9.477196640387843</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>True</t>
         </is>
